--- a/manual/SystemArchitecture.xlsx
+++ b/manual/SystemArchitecture.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\マニュアル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\クロージング\技術移転資料一式\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,10 +174,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Odoo ver10 applys LGPLv3 opensource license, and LGPv3 is defined in [https://www.gnu.org/licenses/lgpl-3.0.html] in details</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Webcoop uses Odoo ver10 as its frame work and is developed as series of addon modules of Odoo.</t>
   </si>
   <si>
@@ -190,6 +186,34 @@
   </si>
   <si>
     <t>1.1 Architecture</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Odoo ver10 applys LGPLv3 opensource license, and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LGPv3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is defined in [https://www.gnu.org/licenses/lgpl-3.0.html] in details</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -197,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,6 +251,14 @@
       <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -463,7 +495,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -508,7 +540,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -553,7 +585,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -598,7 +630,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -643,7 +675,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId7"/>
+              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId7"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -995,7 +1027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" r:embed="rId37"/>
+              <asvg:svgBlip xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1491,33 +1523,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
